--- a/Database/Data-Dictionary/DataDictionary.xlsx
+++ b/Database/Data-Dictionary/DataDictionary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="144">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Employee Email Adress</t>
-  </si>
-  <si>
-    <t>Assitant Admin</t>
   </si>
   <si>
     <t>Limos</t>
@@ -157,12 +154,6 @@
     <t>Class List ID Number</t>
   </si>
   <si>
-    <t>Class List Attendance</t>
-  </si>
-  <si>
-    <t>Class List Missed Class</t>
-  </si>
-  <si>
     <t xml:space="preserve">Student ID </t>
   </si>
   <si>
@@ -292,9 +283,6 @@
     <t>school</t>
   </si>
   <si>
-    <t>assign_position</t>
-  </si>
-  <si>
     <t>guardian_name</t>
   </si>
   <si>
@@ -304,9 +292,6 @@
     <t>employee_id</t>
   </si>
   <si>
-    <t>Account_id</t>
-  </si>
-  <si>
     <t>Student school_address</t>
   </si>
   <si>
@@ -319,9 +304,6 @@
     <t>Student date of registration</t>
   </si>
   <si>
-    <t>employee id number</t>
-  </si>
-  <si>
     <t>Maria Cruz</t>
   </si>
   <si>
@@ -340,9 +322,6 @@
     <t>student_id</t>
   </si>
   <si>
-    <t>Employee_id</t>
-  </si>
-  <si>
     <t>Student_id</t>
   </si>
   <si>
@@ -367,15 +346,6 @@
     <t>balance</t>
   </si>
   <si>
-    <t>Student_Account_id</t>
-  </si>
-  <si>
-    <t>Acount ID number</t>
-  </si>
-  <si>
-    <t>Employee ID number</t>
-  </si>
-  <si>
     <t>Student ID number</t>
   </si>
   <si>
@@ -391,15 +361,6 @@
     <t>Enrollment schedule</t>
   </si>
   <si>
-    <t>employee_account_id</t>
-  </si>
-  <si>
-    <t>student_account_id</t>
-  </si>
-  <si>
-    <t>Employee account id number</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -436,9 +397,6 @@
     <t>Employee id number</t>
   </si>
   <si>
-    <t>Student account id number</t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -451,10 +409,49 @@
     <t>Review Class end date</t>
   </si>
   <si>
-    <t>attendance</t>
-  </si>
-  <si>
-    <t>missed class</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>('Reserved','Enroll')</t>
+  </si>
+  <si>
+    <t>('Male','Female')</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>guardian_contact_number</t>
+  </si>
+  <si>
+    <t>guardian_email_address</t>
+  </si>
+  <si>
+    <t>Guardian relation</t>
+  </si>
+  <si>
+    <t>Guardian contact number</t>
+  </si>
+  <si>
+    <t>Guardian email address</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>('Pending','Reserved','Enrolled','Done','Cancelled')</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>('Admin','Instructor')</t>
   </si>
 </sst>
 </file>
@@ -528,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -601,13 +598,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -642,16 +659,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,7 +672,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -980,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1030,11 +1053,11 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>9</v>
@@ -1052,41 +1075,35 @@
         <v>14</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I2" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="5" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
-        <v>30</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -1102,16 +1119,16 @@
         <v>14</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -1127,16 +1144,16 @@
         <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -1145,23 +1162,21 @@
         <v>11</v>
       </c>
       <c r="E6" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G6" s="6"/>
       <c r="H6" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -1170,123 +1185,121 @@
         <v>11</v>
       </c>
       <c r="E7" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="7">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+        <v>74</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>12345</v>
       </c>
       <c r="E9" s="5">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+        <v>77</v>
+      </c>
+      <c r="I9" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
       <c r="B10" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6">
-        <v>12345</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="5">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9958705656</v>
+        <v>80</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>12345</v>
       </c>
       <c r="E11" s="5">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9958705656</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>10</v>
@@ -1302,16 +1315,16 @@
         <v>14</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>10</v>
@@ -1320,23 +1333,23 @@
         <v>11</v>
       </c>
       <c r="E13" s="5">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>63</v>
+        <v>85</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>10</v>
@@ -1345,73 +1358,71 @@
         <v>11</v>
       </c>
       <c r="E14" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="5">
+        <v>40</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="11">
-        <v>42510</v>
+        <v>91</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="5" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="6">
-        <v>12345</v>
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="5">
-        <v>6</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7</v>
+        <v>136</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="5" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>9</v>
@@ -1420,158 +1431,140 @@
         <v>12345</v>
       </c>
       <c r="E17" s="5">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="7">
+        <v>92768643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5">
+        <v>45</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="11">
+        <v>42510</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="H23" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="I23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E24" s="5">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="7">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E21" s="5">
-        <v>6</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="5">
-        <v>30</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="5">
-        <v>30</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="5">
-        <v>30</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>10</v>
@@ -1583,16 +1576,20 @@
         <v>30</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="H25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="12" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>10</v>
@@ -1601,399 +1598,391 @@
         <v>11</v>
       </c>
       <c r="E26" s="5">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
       <c r="B27" s="12" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="6">
-        <v>12345</v>
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E27" s="5">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="G27" s="6"/>
       <c r="H27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I27" s="7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+        <v>70</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
       <c r="B28" s="12" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="6">
-        <v>12345</v>
+        <v>10</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E28" s="5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="7">
-        <v>9179567184</v>
+        <v>75</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="D29" s="6">
+        <v>12345</v>
       </c>
       <c r="E29" s="5">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E31" s="5">
+        <v>13</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="7">
+        <v>9179567184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5">
+        <v>45</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="I32" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E35" s="5">
+        <v>6</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="5">
-        <v>6</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I30" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E33" s="5">
-        <v>6</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="5" t="s">
+      <c r="D36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5">
+        <v>30</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="I36" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="5">
-        <v>30</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="E37" s="5">
         <v>150</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="13">
-        <v>150</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19"/>
+      <c r="B38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="13">
+        <v>150</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I39" s="10"/>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I40" s="10"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I43" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E44" s="5">
+        <v>6</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E42" s="5">
-        <v>6</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="5">
-        <v>45</v>
-      </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I44" s="11"/>
+      <c r="I44" s="7"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>9</v>
@@ -2005,20 +1994,22 @@
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="I45" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>9</v>
@@ -2030,20 +2021,22 @@
         <v>6</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I46" s="15"/>
+        <v>103</v>
+      </c>
+      <c r="I46" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>9</v>
@@ -2055,15 +2048,17 @@
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="I47" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2096,11 +2091,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
-        <v>49</v>
+      <c r="A50" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>9</v>
@@ -2118,22 +2113,22 @@
         <v>14</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I50" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
@@ -2141,16 +2136,16 @@
         <v>14</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I51" s="11">
         <v>42511</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>9</v>
@@ -2166,16 +2161,16 @@
         <v>14</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I52" s="7">
         <v>1111</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>9</v>
@@ -2191,16 +2186,16 @@
         <v>14</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I53" s="7">
         <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>9</v>
@@ -2216,16 +2211,16 @@
         <v>14</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>9</v>
@@ -2237,161 +2232,153 @@
         <v>6</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I55" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E56" s="5">
-        <v>6</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="I56" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E57" s="5">
-        <v>6</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H59" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I59" s="4" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E60" s="5">
+        <v>6</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="A62" s="22"/>
       <c r="B62" s="5" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="6">
-        <v>12345</v>
+        <v>10</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E62" s="5">
-        <v>6</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="F62" s="6"/>
       <c r="G62" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I62" s="7">
-        <v>1</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="I62" s="7"/>
     </row>
     <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="5" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="6"/>
@@ -2399,199 +2386,193 @@
         <v>14</v>
       </c>
       <c r="H63" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E64" s="5">
+        <v>6</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E65" s="5">
+        <v>6</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
-      <c r="B64" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="B71" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E71" s="5">
+        <v>6</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17"/>
+      <c r="B72" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I72" s="11">
+        <v>42511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17"/>
+      <c r="B73" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E73" s="5">
         <v>150</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="18"/>
-      <c r="B65" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="5" t="s">
+      <c r="F73" s="6"/>
+      <c r="G73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17"/>
+      <c r="B74" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="5"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="18"/>
-      <c r="B66" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E66" s="5">
-        <v>6</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I66" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="18"/>
-      <c r="B67" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E67" s="5">
-        <v>6</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I67" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="18"/>
-      <c r="B68" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E68" s="5">
-        <v>6</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E69" s="5">
-        <v>6</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I69" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="I74" s="7"/>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
-        <v>62</v>
-      </c>
+      <c r="A75" s="17"/>
       <c r="B75" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>9</v>
@@ -2603,174 +2584,184 @@
         <v>6</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I75" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="17"/>
       <c r="B76" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E76" s="5">
+        <v>6</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="6"/>
       <c r="G76" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I76" s="11">
-        <v>42511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I76" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="6">
+        <v>12345</v>
+      </c>
+      <c r="E81" s="5">
+        <v>6</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="25"/>
+      <c r="B82" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="5">
+        <v>45</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="25"/>
+      <c r="B83" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="5">
+        <v>45</v>
+      </c>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I83" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="5">
-        <v>150</v>
-      </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-      <c r="B78" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-      <c r="B79" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C79" s="6" t="s">
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="25"/>
+      <c r="B84" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D84" s="6">
         <v>12345</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E84" s="5">
         <v>6</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I79" s="7">
+      <c r="F84" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="I84" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="6">
-        <v>12345</v>
-      </c>
-      <c r="E80" s="5">
-        <v>6</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I80" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
-        <v>126</v>
-      </c>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="25"/>
       <c r="B85" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>9</v>
@@ -2782,82 +2773,32 @@
         <v>6</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="I85" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="5">
-        <v>45</v>
-      </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="5">
-        <v>45</v>
-      </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A50:A57"/>
-    <mergeCell ref="A62:A69"/>
-    <mergeCell ref="A75:A80"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A21:A30"/>
-    <mergeCell ref="A42:A47"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A81:A85"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A71:A76"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I9" r:id="rId1"/>
-    <hyperlink ref="I29" r:id="rId2"/>
+    <hyperlink ref="I10" r:id="rId1"/>
+    <hyperlink ref="I32" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId3"/>
